--- a/Non-Coffee Drinkers/Non Coffee Drinkers Normalised.xlsx
+++ b/Non-Coffee Drinkers/Non Coffee Drinkers Normalised.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/512f0b414f2a6f27/Data Analytics U3/SAT/Non-Coffee Drinkers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{3B41DC39-7ADB-4432-80D8-1632BD69C54F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1955BF17-8E6B-4FB4-B58D-64A42D0840FF}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{3B41DC39-7ADB-4432-80D8-1632BD69C54F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{85503591-15C9-44BA-A366-8F46F614B9CF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Non Coffee Drinkers" sheetId="1" r:id="rId1"/>
     <sheet name="Open Ended Responses" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
